--- a/Files/Gantt.xlsx
+++ b/Files/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="496" documentId="8_{A108D8B6-617D-4728-A2E3-C3A56B5C1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFFB8D21-9C75-4B8A-8B4C-5CA807D67D97}"/>
+  <xr:revisionPtr revIDLastSave="499" documentId="8_{A108D8B6-617D-4728-A2E3-C3A56B5C1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31A3D95-4BBA-4E1F-82A1-08352205200B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,32 +766,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="3" applyBorder="1">
       <alignment horizontal="center"/>
@@ -847,15 +823,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -864,6 +831,39 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="11" applyBorder="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1534,7 +1534,7 @@
   <dimension ref="B1:BO99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1584,11 +1584,11 @@
       <c r="F3" s="5"/>
       <c r="G3" s="13"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="12"/>
@@ -1603,19 +1603,19 @@
       <c r="AJ3" s="7"/>
     </row>
     <row r="4" spans="2:67" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="67" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -1631,8 +1631,8 @@
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="72" t="s">
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61" t="s">
         <v>27</v>
       </c>
       <c r="R4" s="20"/>
@@ -1687,11 +1687,11 @@
       <c r="BO4" s="30"/>
     </row>
     <row r="5" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="24">
         <v>1</v>
       </c>
@@ -1875,17 +1875,21 @@
       <c r="BO5" s="32"/>
     </row>
     <row r="6" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="58">
         <v>11</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="58">
         <v>1</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="E6" s="58">
+        <v>10</v>
+      </c>
+      <c r="F6" s="58">
+        <v>1</v>
+      </c>
       <c r="G6" s="22"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -1949,17 +1953,19 @@
       <c r="BO6" s="32"/>
     </row>
     <row r="7" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="58">
         <v>11</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="58">
         <v>2</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="E7" s="58">
+        <v>10</v>
+      </c>
+      <c r="F7" s="58"/>
       <c r="G7" s="22"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -2023,17 +2029,17 @@
       <c r="BO7" s="32"/>
     </row>
     <row r="8" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="58">
         <v>12</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="58">
         <v>1</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="22"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -2097,17 +2103,17 @@
       <c r="BO8" s="32"/>
     </row>
     <row r="9" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="58">
         <v>13</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="58">
         <v>1</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="22"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -2171,17 +2177,17 @@
       <c r="BO9" s="32"/>
     </row>
     <row r="10" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="58">
         <v>13</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="58">
         <v>1</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="22"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -2245,11 +2251,11 @@
       <c r="BO10" s="32"/>
     </row>
     <row r="11" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="22"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -2313,11 +2319,11 @@
       <c r="BO11" s="32"/>
     </row>
     <row r="12" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="22"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -2381,11 +2387,11 @@
       <c r="BO12" s="32"/>
     </row>
     <row r="13" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="22"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -2449,11 +2455,11 @@
       <c r="BO13" s="32"/>
     </row>
     <row r="14" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="70"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="22"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -2517,11 +2523,11 @@
       <c r="BO14" s="32"/>
     </row>
     <row r="15" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="22"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -2584,11 +2590,11 @@
       <c r="BN15" s="32"/>
     </row>
     <row r="16" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="22"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -2651,11 +2657,11 @@
       <c r="BN16" s="32"/>
     </row>
     <row r="17" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="22"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -2718,11 +2724,11 @@
       <c r="BN17" s="32"/>
     </row>
     <row r="18" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="22"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -2785,11 +2791,11 @@
       <c r="BN18" s="32"/>
     </row>
     <row r="19" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="22"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -2852,11 +2858,11 @@
       <c r="BN19" s="32"/>
     </row>
     <row r="20" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="70"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="22"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -2919,11 +2925,11 @@
       <c r="BN20" s="32"/>
     </row>
     <row r="21" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="70"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="22"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -2986,11 +2992,11 @@
       <c r="BN21" s="32"/>
     </row>
     <row r="22" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="70"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="22"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -3053,11 +3059,11 @@
       <c r="BN22" s="32"/>
     </row>
     <row r="23" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="22"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -8308,7 +8314,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="G2" s="46"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="34" t="s">
         <v>5</v>
       </c>
@@ -8351,19 +8357,19 @@
       <c r="AJ3" s="7"/>
     </row>
     <row r="4" spans="2:67" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -8436,23 +8442,23 @@
     </row>
     <row r="5" spans="2:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="69"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="49">
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="41">
         <v>1</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="42">
         <v>2</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="42">
         <v>3</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="42">
         <v>4</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="43">
         <v>5</v>
       </c>
       <c r="L5" s="24">
@@ -8623,26 +8629,26 @@
       <c r="BO5" s="32"/>
     </row>
     <row r="6" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="45">
         <v>1</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="45">
         <v>1</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="45">
         <v>1</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="22"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -8701,19 +8707,19 @@
       <c r="BO6" s="32"/>
     </row>
     <row r="7" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="50">
         <v>1</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="50">
         <v>1</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="50">
         <v>1</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="50">
         <v>1</v>
       </c>
       <c r="G7" s="22"/>
@@ -8779,19 +8785,19 @@
       <c r="BO7" s="32"/>
     </row>
     <row r="8" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="50">
         <v>1</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="50">
         <v>1</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="50">
         <v>1</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="50">
         <v>1</v>
       </c>
       <c r="G8" s="22"/>
@@ -8857,19 +8863,19 @@
       <c r="BO8" s="32"/>
     </row>
     <row r="9" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="50">
         <v>1</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="50">
         <v>1</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="50">
         <v>1</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="50">
         <v>1</v>
       </c>
       <c r="G9" s="22"/>
@@ -8935,19 +8941,19 @@
       <c r="BO9" s="32"/>
     </row>
     <row r="10" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="50">
         <v>1</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="50">
         <v>1</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="50">
         <v>1</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="50">
         <v>1</v>
       </c>
       <c r="G10" s="22"/>
@@ -9013,19 +9019,19 @@
       <c r="BO10" s="32"/>
     </row>
     <row r="11" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="50">
         <v>1</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="50">
         <v>1</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="50">
         <v>1</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="50">
         <v>1</v>
       </c>
       <c r="G11" s="22"/>
@@ -9091,19 +9097,19 @@
       <c r="BO11" s="32"/>
     </row>
     <row r="12" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="50">
         <v>1</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="50">
         <v>1</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="50">
         <v>1</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="50">
         <v>2</v>
       </c>
       <c r="G12" s="22"/>
@@ -9169,19 +9175,19 @@
       <c r="BO12" s="32"/>
     </row>
     <row r="13" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="50">
         <v>2</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="50">
         <v>1</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="50">
         <v>2</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="50">
         <v>1</v>
       </c>
       <c r="G13" s="22"/>
@@ -9247,19 +9253,19 @@
       <c r="BO13" s="32"/>
     </row>
     <row r="14" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="50">
         <v>2</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="50">
         <v>1</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="50">
         <v>2</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="50">
         <v>1</v>
       </c>
       <c r="G14" s="22"/>
@@ -9325,19 +9331,19 @@
       <c r="BO14" s="32"/>
     </row>
     <row r="15" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="50">
         <v>2</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="50">
         <v>1</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="50">
         <v>2</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="50">
         <v>1</v>
       </c>
       <c r="G15" s="22"/>
@@ -9403,19 +9409,19 @@
       <c r="BO15" s="32"/>
     </row>
     <row r="16" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="51">
         <v>3</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="50">
         <v>1</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="50">
         <v>3</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="50">
         <v>1</v>
       </c>
       <c r="G16" s="22"/>
@@ -9481,19 +9487,19 @@
       <c r="BO16" s="32"/>
     </row>
     <row r="17" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="50">
         <v>4</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="50">
         <v>1</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="50">
         <v>4</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="50">
         <v>1</v>
       </c>
       <c r="G17" s="22"/>
@@ -9559,19 +9565,19 @@
       <c r="BO17" s="32"/>
     </row>
     <row r="18" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="50">
         <v>4</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="50">
         <v>1</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="50">
         <v>4</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="50">
         <v>1</v>
       </c>
       <c r="G18" s="22"/>
@@ -9637,19 +9643,19 @@
       <c r="BO18" s="32"/>
     </row>
     <row r="19" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="50">
         <v>4</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="50">
         <v>1</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="50">
         <v>4</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="50">
         <v>1</v>
       </c>
       <c r="G19" s="22"/>
@@ -9715,19 +9721,19 @@
       <c r="BO19" s="32"/>
     </row>
     <row r="20" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="50">
         <v>4</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="50">
         <v>1</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="50">
         <v>4</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="50">
         <v>1</v>
       </c>
       <c r="G20" s="22"/>
@@ -9793,19 +9799,19 @@
       <c r="BO20" s="32"/>
     </row>
     <row r="21" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="50">
         <v>4</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="50">
         <v>1</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="50">
         <v>4</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="50">
         <v>1</v>
       </c>
       <c r="G21" s="22"/>
@@ -9871,19 +9877,19 @@
       <c r="BO21" s="32"/>
     </row>
     <row r="22" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="50">
         <v>5</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="50">
         <v>1</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="50">
         <v>5</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="50">
         <v>1</v>
       </c>
       <c r="G22" s="22"/>
@@ -9949,26 +9955,26 @@
       <c r="BO22" s="32"/>
     </row>
     <row r="23" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="53">
         <v>5</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="53">
         <v>1</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="53">
         <v>5</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="53">
         <v>1</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="22"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -10027,11 +10033,11 @@
       <c r="BO23" s="32"/>
     </row>
     <row r="24" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10145,11 +10151,11 @@
       <c r="F3" s="5"/>
       <c r="G3" s="13"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="12"/>
@@ -10164,19 +10170,19 @@
       <c r="AJ3" s="7"/>
     </row>
     <row r="4" spans="2:67" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="67" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -10248,11 +10254,11 @@
       <c r="BO4" s="30"/>
     </row>
     <row r="5" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="24">
         <v>1</v>
       </c>
@@ -10436,19 +10442,19 @@
       <c r="BO5" s="32"/>
     </row>
     <row r="6" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="58">
         <v>6</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="58">
         <v>1</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="58">
         <v>6</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="58">
         <v>1</v>
       </c>
       <c r="G6" s="22"/>
@@ -10514,19 +10520,19 @@
       <c r="BO6" s="32"/>
     </row>
     <row r="7" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="58">
         <v>6</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="58">
         <v>1</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="58">
         <v>6</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="58">
         <v>1</v>
       </c>
       <c r="G7" s="22"/>
@@ -10592,19 +10598,19 @@
       <c r="BO7" s="32"/>
     </row>
     <row r="8" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="58">
         <v>7</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="58">
         <v>1</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="58">
         <v>6</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="58">
         <v>1</v>
       </c>
       <c r="G8" s="22"/>
@@ -10670,19 +10676,19 @@
       <c r="BO8" s="32"/>
     </row>
     <row r="9" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="58">
         <v>7</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="58">
         <v>1</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="58">
         <v>6</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="58">
         <v>1</v>
       </c>
       <c r="G9" s="22"/>
@@ -10748,19 +10754,19 @@
       <c r="BO9" s="32"/>
     </row>
     <row r="10" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="58">
         <v>7</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="58">
         <v>1</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="58">
         <v>7</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="58">
         <v>1</v>
       </c>
       <c r="G10" s="22"/>
@@ -10826,19 +10832,19 @@
       <c r="BO10" s="32"/>
     </row>
     <row r="11" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="58">
         <v>8</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="58">
         <v>1</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="58">
         <v>7</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="58">
         <v>1</v>
       </c>
       <c r="G11" s="22"/>
@@ -10904,19 +10910,19 @@
       <c r="BO11" s="32"/>
     </row>
     <row r="12" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="58">
         <v>8</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="58">
         <v>1</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="58">
         <v>7</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="58">
         <v>1</v>
       </c>
       <c r="G12" s="22"/>
@@ -10982,19 +10988,19 @@
       <c r="BO12" s="32"/>
     </row>
     <row r="13" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="58">
         <v>8</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="58">
         <v>1</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="58">
         <v>8</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="58">
         <v>1</v>
       </c>
       <c r="G13" s="22"/>
@@ -11060,19 +11066,19 @@
       <c r="BO13" s="32"/>
     </row>
     <row r="14" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="58">
         <v>8</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="58">
         <v>1</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="58">
         <v>8</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="58">
         <v>1</v>
       </c>
       <c r="G14" s="22"/>
@@ -11138,19 +11144,19 @@
       <c r="BO14" s="32"/>
     </row>
     <row r="15" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="58">
         <v>9</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="58">
         <v>1</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="58">
         <v>8</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="58">
         <v>1</v>
       </c>
       <c r="G15" s="22"/>
@@ -11215,19 +11221,19 @@
       <c r="BN15" s="32"/>
     </row>
     <row r="16" spans="2:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="58">
         <v>9</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="58">
         <v>1</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="58">
         <v>8</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="58">
         <v>1</v>
       </c>
       <c r="G16" s="22"/>
@@ -11292,19 +11298,19 @@
       <c r="BN16" s="32"/>
     </row>
     <row r="17" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="58">
         <v>9</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="58">
         <v>1</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="58">
         <v>8</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="58">
         <v>1</v>
       </c>
       <c r="G17" s="22"/>
@@ -11369,19 +11375,19 @@
       <c r="BN17" s="32"/>
     </row>
     <row r="18" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="58">
         <v>9</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="58">
         <v>1</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="58">
         <v>8</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="58">
         <v>1</v>
       </c>
       <c r="G18" s="22"/>
@@ -11446,19 +11452,19 @@
       <c r="BN18" s="32"/>
     </row>
     <row r="19" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="58">
         <v>9</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="58">
         <v>1</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="58">
         <v>8</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="58">
         <v>1</v>
       </c>
       <c r="G19" s="22"/>
@@ -11523,19 +11529,19 @@
       <c r="BN19" s="32"/>
     </row>
     <row r="20" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="58">
         <v>9</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="58">
         <v>1</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="58">
         <v>8</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="58">
         <v>1</v>
       </c>
       <c r="G20" s="22"/>
@@ -11600,19 +11606,19 @@
       <c r="BN20" s="32"/>
     </row>
     <row r="21" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="58">
         <v>10</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="58">
         <v>1</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="58">
         <v>8</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="58">
         <v>1</v>
       </c>
       <c r="G21" s="22"/>
@@ -11677,19 +11683,19 @@
       <c r="BN21" s="32"/>
     </row>
     <row r="22" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="58">
         <v>10</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="58">
         <v>1</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="58">
         <v>9</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="58">
         <v>1</v>
       </c>
       <c r="G22" s="22"/>
@@ -11754,19 +11760,19 @@
       <c r="BN22" s="32"/>
     </row>
     <row r="23" spans="2:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="58">
         <v>10</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="58">
         <v>1</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="58">
         <v>9</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="58">
         <v>1</v>
       </c>
       <c r="G23" s="22"/>

--- a/Files/Gantt.xlsx
+++ b/Files/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="499" documentId="8_{A108D8B6-617D-4728-A2E3-C3A56B5C1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31A3D95-4BBA-4E1F-82A1-08352205200B}"/>
+  <xr:revisionPtr revIDLastSave="500" documentId="8_{A108D8B6-617D-4728-A2E3-C3A56B5C1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E215A2C9-8D05-4AC7-8610-C05CCD2ACC9D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2895" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1533,8 +1533,8 @@
   </sheetPr>
   <dimension ref="B1:BO99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1965,7 +1965,9 @@
       <c r="E7" s="58">
         <v>10</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="58">
+        <v>1</v>
+      </c>
       <c r="G7" s="22"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -8289,7 +8291,7 @@
   <dimension ref="B1:BO24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10101,8 +10103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808C5D50-470B-44ED-B21F-9AB1AFD96A4E}">
   <dimension ref="B1:BO99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
